--- a/medicine/Mort/Cimetière_de_Senlis/Cimetière_de_Senlis.xlsx
+++ b/medicine/Mort/Cimetière_de_Senlis/Cimetière_de_Senlis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Senlis</t>
+          <t>Cimetière_de_Senlis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Senlis, dit aussi cimetière ancien, est un des cimetières municipaux de Senlis dans le département de l'Oise[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Senlis, dit aussi cimetière ancien, est un des cimetières municipaux de Senlis dans le département de l'Oise.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Senlis</t>
+          <t>Cimetière_de_Senlis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière du milieu XIXe siècle est formé d'allées rectilignes sans presque aucune végétation avec une place dominée par un calvaire où sont enterrés des ecclésiastiques de Senlis[2]. Il a conservé des sépultures anciennes, dont certaines sont décorées de bas-reliefs, statues (anges, pleureuses, comme sur la tombe de la famille de l'architecte Fabien Morin 1893-1976, etc.), mais la plupart des tombes sont extrêmement simples et très modestes. On remarque l'obélisque de l'officier napoléonien, le capitaine Jean-Baptiste Deshais, qui fait mention de toutes les batailles auxquelles il participa[2]. Ce cimetière offre un lieu propice au recueillement et au souvenir.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière du milieu XIXe siècle est formé d'allées rectilignes sans presque aucune végétation avec une place dominée par un calvaire où sont enterrés des ecclésiastiques de Senlis. Il a conservé des sépultures anciennes, dont certaines sont décorées de bas-reliefs, statues (anges, pleureuses, comme sur la tombe de la famille de l'architecte Fabien Morin 1893-1976, etc.), mais la plupart des tombes sont extrêmement simples et très modestes. On remarque l'obélisque de l'officier napoléonien, le capitaine Jean-Baptiste Deshais, qui fait mention de toutes les batailles auxquelles il participa. Ce cimetière offre un lieu propice au recueillement et au souvenir.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Senlis</t>
+          <t>Cimetière_de_Senlis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Georges Cziffra (1921-1994), pianiste hongrois naturalisé français, fondateur du festival de musique de La Chaise-Dieu (tombe avec un bas-relief en marbre du pape Sylvestre II de la sculptrice Maria de Faykod), inhumé avec son fils György mort en 1981.
 Louise-Célina de Junquières, marquise de Giac (1806-1875), salonnière qui reçut Alfred de Vigny, Gérard de Nerval, Alexandre Dumas père et Alexandre Dumas fils dans son château de Valgenceuse.
